--- a/data/case1/5/Plm2_1.xlsx
+++ b/data/case1/5/Plm2_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.31686237110869797</v>
+        <v>-0.38267251156081272</v>
       </c>
       <c r="B1" s="0">
-        <v>0.31621763861448926</v>
+        <v>0.38181338606057125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27010914737858016</v>
+        <v>-0.33570347490350194</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26757366134262739</v>
+        <v>0.33214555221213615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16462526658575172</v>
+        <v>-0.17429041547444868</v>
       </c>
       <c r="B3" s="0">
-        <v>0.16394721819817448</v>
+        <v>0.17357622783611149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15194721836063252</v>
+        <v>-0.16157622801121363</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15134997561181152</v>
+        <v>0.1609350299963026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14534997620895052</v>
+        <v>-0.15493503063787362</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1441669033295101</v>
+        <v>0.15365376561521149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.08714888295071832</v>
+        <v>-0.055280449236837281</v>
       </c>
       <c r="B6" s="0">
-        <v>0.087032010533233617</v>
+        <v>0.055233441416508544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.067032011261495938</v>
+        <v>-0.035233442191284325</v>
       </c>
       <c r="B7" s="0">
-        <v>0.066770417010904026</v>
+        <v>0.035162218168169446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.046770417745959136</v>
+        <v>-0.015162218946647599</v>
       </c>
       <c r="B8" s="0">
-        <v>0.046584882403946537</v>
+        <v>0.015143370119504951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.040584883035375441</v>
+        <v>-0.0091433707893058269</v>
       </c>
       <c r="B9" s="0">
-        <v>0.040439801980787671</v>
+        <v>0.0091361839629859887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.03443980261846491</v>
+        <v>-0.0031361846341582122</v>
       </c>
       <c r="B10" s="0">
-        <v>0.03442239936377689</v>
+        <v>0.0031378898906737618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.029922399988517867</v>
+        <v>0.0013621094500493314</v>
       </c>
       <c r="B11" s="0">
-        <v>0.029896852119556172</v>
+        <v>-0.0013612077917244392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.023896852757568698</v>
+        <v>0.007361207120549107</v>
       </c>
       <c r="B12" s="0">
-        <v>0.023825893037690893</v>
+        <v>-0.0073675050806336628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017825893680890381</v>
+        <v>0.013367504411212927</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017812071148568975</v>
+        <v>-0.013375120472231217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0058120718405403338</v>
+        <v>0.02451394357644876</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0058114337669046279</v>
+        <v>-0.024537070742218781</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.00018856558824786873</v>
+        <v>0.030537070076142925</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.00018849695159506297</v>
+        <v>-0.030583410637460062</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0061884963067631027</v>
+        <v>-0.015026457675629601</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0061928189550504165</v>
+        <v>0.015003896376523329</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090041548818469153</v>
+        <v>-0.0090038970421044695</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999993319391791</v>
+        <v>0.0089999993097231723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036108491831473799</v>
+        <v>-0.036109911785644044</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096430743871366</v>
+        <v>0.036096109618934946</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096431332119142</v>
+        <v>-0.027096110237945226</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013290623580488</v>
+        <v>0.027013014072142294</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013291217261695</v>
+        <v>-0.018013014697165985</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004202529601443</v>
+        <v>0.018004086428785371</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042031241095444</v>
+        <v>-0.0090040870548335761</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999994048701737</v>
+        <v>0.0089999993731506578</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093948395362133397</v>
+        <v>-0.093951177780187578</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093635398117822177</v>
+        <v>0.093637264880840121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084635398728833522</v>
+        <v>-0.084637265532695238</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126898332382183</v>
+        <v>0.084127223164658815</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126899214446567</v>
+        <v>-0.042127224089963278</v>
       </c>
       <c r="B24" s="0">
-        <v>0.04199999911289698</v>
+        <v>0.041999999068885074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.038126856699165046</v>
+        <v>-0.092373317040465253</v>
       </c>
       <c r="B25" s="0">
-        <v>0.038112382519894794</v>
+        <v>0.092253205258678861</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.032112383135803668</v>
+        <v>-0.085222882449691895</v>
       </c>
       <c r="B26" s="0">
-        <v>0.032096732598532185</v>
+        <v>0.085053589654364714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.026096733215573042</v>
+        <v>-0.079053590322519796</v>
       </c>
       <c r="B27" s="0">
-        <v>0.026048976254352763</v>
+        <v>0.078492731005013194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.020048976875348679</v>
+        <v>-0.072492731687163747</v>
       </c>
       <c r="B28" s="0">
-        <v>0.020027378697486498</v>
+        <v>0.072125231875200591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0080273793681300276</v>
+        <v>-0.060125232614856472</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0080235409117168643</v>
+        <v>0.059967173504889004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.064025379532187454</v>
+        <v>-0.03996717431304786</v>
       </c>
       <c r="B30" s="0">
-        <v>0.063691209864760179</v>
+        <v>0.039804729553190032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.048691210568833299</v>
+        <v>-0.024804730328533253</v>
       </c>
       <c r="B31" s="0">
-        <v>0.048610836376434818</v>
+        <v>0.02476556800306895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.027610837130029431</v>
+        <v>-0.0060004922835927843</v>
       </c>
       <c r="B32" s="0">
-        <v>0.027537754078116095</v>
+        <v>0.0059999992947021852</v>
       </c>
     </row>
   </sheetData>
